--- a/config/config-demo.xlsx
+++ b/config/config-demo.xlsx
@@ -16,53 +16,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
-  <si>
-    <t>AppID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>MaketUrl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PicUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Gp-on-off</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ad_Unit_appids</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>on-off</t>
+    <t>AppID_v1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1003.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1004.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1005.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1006.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1003.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1004.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1005.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1006.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>More_Unit_appids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ads_Lock_0-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full_Unit_appids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1001.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1001.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1003.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1004.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1005.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1006.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nativeAdUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PicFullUrl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -84,6 +144,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -151,12 +218,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,9 +240,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -514,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -525,247 +600,240 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
         <v>1002</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C3" s="3">
         <v>1003</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D3" s="3">
         <v>1004</v>
       </c>
-      <c r="F2" s="3">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1004</v>
+      </c>
+      <c r="E4" s="3">
         <v>1005</v>
       </c>
-      <c r="G2" s="3">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>5</v>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId4"/>
+    <hyperlink ref="F10" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="C6" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
+    <hyperlink ref="C8" r:id="rId9"/>
+    <hyperlink ref="C9" r:id="rId10"/>
+    <hyperlink ref="C10" r:id="rId11"/>
+    <hyperlink ref="C5" r:id="rId12"/>
+    <hyperlink ref="D5" r:id="rId13"/>
+    <hyperlink ref="E6" r:id="rId14"/>
+    <hyperlink ref="E8" r:id="rId15"/>
+    <hyperlink ref="E9" r:id="rId16"/>
+    <hyperlink ref="E10" r:id="rId17"/>
+    <hyperlink ref="E5" r:id="rId18"/>
+    <hyperlink ref="E7" r:id="rId19"/>
+    <hyperlink ref="D6:D10" r:id="rId20" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png"/>
+    <hyperlink ref="D6" r:id="rId21"/>
+    <hyperlink ref="D7" r:id="rId22"/>
+    <hyperlink ref="D8" r:id="rId23"/>
+    <hyperlink ref="D9" r:id="rId24"/>
+    <hyperlink ref="D10" r:id="rId25"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>

--- a/config/config-demo.xlsx
+++ b/config/config-demo.xlsx
@@ -16,20 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t>MaketUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Gp-on-off</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AppID_v1.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1002.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,10 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ads_Lock_0-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Full_Unit_appids</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,6 +111,21 @@
   </si>
   <si>
     <t>PicFullUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaketUrl-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppID_v1_adslock1-5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -592,14 +595,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="83.5" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="85.625" customWidth="1"/>
@@ -607,27 +610,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -647,7 +650,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <v>1002</v>
@@ -667,7 +670,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>1002</v>
@@ -693,16 +696,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -713,16 +716,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -733,16 +736,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -753,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -773,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -793,16 +796,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -814,25 +817,20 @@
     <hyperlink ref="F9" r:id="rId4"/>
     <hyperlink ref="F10" r:id="rId5"/>
     <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="C6" r:id="rId7"/>
-    <hyperlink ref="C7" r:id="rId8"/>
-    <hyperlink ref="C8" r:id="rId9"/>
-    <hyperlink ref="C9" r:id="rId10"/>
-    <hyperlink ref="C10" r:id="rId11"/>
-    <hyperlink ref="C5" r:id="rId12"/>
-    <hyperlink ref="D5" r:id="rId13"/>
-    <hyperlink ref="E6" r:id="rId14"/>
-    <hyperlink ref="E8" r:id="rId15"/>
-    <hyperlink ref="E9" r:id="rId16"/>
-    <hyperlink ref="E10" r:id="rId17"/>
-    <hyperlink ref="E5" r:id="rId18"/>
-    <hyperlink ref="E7" r:id="rId19"/>
-    <hyperlink ref="D6:D10" r:id="rId20" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png"/>
-    <hyperlink ref="D6" r:id="rId21"/>
-    <hyperlink ref="D7" r:id="rId22"/>
-    <hyperlink ref="D8" r:id="rId23"/>
-    <hyperlink ref="D9" r:id="rId24"/>
-    <hyperlink ref="D10" r:id="rId25"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="E6" r:id="rId8"/>
+    <hyperlink ref="E8" r:id="rId9"/>
+    <hyperlink ref="E9" r:id="rId10"/>
+    <hyperlink ref="E10" r:id="rId11"/>
+    <hyperlink ref="E5" r:id="rId12"/>
+    <hyperlink ref="E7" r:id="rId13"/>
+    <hyperlink ref="D6:D10" r:id="rId14" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png"/>
+    <hyperlink ref="D6" r:id="rId15"/>
+    <hyperlink ref="D7" r:id="rId16"/>
+    <hyperlink ref="D8" r:id="rId17"/>
+    <hyperlink ref="D9" r:id="rId18"/>
+    <hyperlink ref="D10" r:id="rId19"/>
+    <hyperlink ref="C5" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config-demo.xlsx
+++ b/config/config-demo.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config/config-demo.xlsx
+++ b/config/config-demo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Gp-on-off</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -121,11 +121,18 @@
     <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
   </si>
   <si>
-    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AppID_v1_adslock1-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61/config/game_1001.apk</t>
+  </si>
+  <si>
+    <t>http://185.207.154.61/config/game_1002.apk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://185.207.154.61/config/game_1003.apk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +602,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -610,7 +617,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -696,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -716,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>17</v>
@@ -736,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
@@ -830,7 +837,8 @@
     <hyperlink ref="D8" r:id="rId17"/>
     <hyperlink ref="D9" r:id="rId18"/>
     <hyperlink ref="D10" r:id="rId19"/>
-    <hyperlink ref="C5" r:id="rId20"/>
+    <hyperlink ref="C6" r:id="rId20"/>
+    <hyperlink ref="C7" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>
